--- a/doc/info.xlsx
+++ b/doc/info.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\Work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0FC371-A52F-460D-BC7E-345E98C46CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415ACC7E-CF5C-4B0C-82D2-7A9944CCB2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{05683452-B0E2-482B-8AFE-F13A63B63A05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{05683452-B0E2-482B-8AFE-F13A63B63A05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="deploy_plan" sheetId="1" r:id="rId1"/>
+    <sheet name="links" sheetId="3" r:id="rId2"/>
+    <sheet name="SQL" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
   <si>
     <t>select top 10 cp.ConsultantNumber,cp.ContactID,cp.SubsidiaryID
 from ConsultantProfile cp (nolock)
@@ -68,30 +69,809 @@
 AND (du.TerminationDate &gt;= '2016-10-01'
 OR du.TerminationDate IS NULL)</t>
   </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>UAT</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>Change ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAM 2.86</t>
+  </si>
+  <si>
+    <t>03/03 CHN Time</t>
+  </si>
+  <si>
+    <t>03/10 CHN Time</t>
+  </si>
+  <si>
+    <t>03/17 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0060045 - SAM China Release 2.86-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060046 - SAM China Release 2.86-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.86.5</t>
+  </si>
+  <si>
+    <t>03/18 CHN Time</t>
+  </si>
+  <si>
+    <t>03/19 CHN Time</t>
+  </si>
+  <si>
+    <t>03/31 CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0060047 - SAM China Month-End Release 2.86.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060048 - SAM China Month-End Release 2.86.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.86</t>
+  </si>
+  <si>
+    <t>CHG0060049 - FO China Local Release 2.86-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060050 - FO China Local Release 2.86-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.86.5</t>
+  </si>
+  <si>
+    <t>CHG0060051 - FO China Local Release 2.86.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060052 - FO China Local Release 2.86.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/06 CHN Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/13CHN Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/20  DAL Time </t>
+  </si>
+  <si>
+    <t>CHG0060573-SAM China Release 2.87-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060572-SAM China Release 2.87-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.87.5</t>
+  </si>
+  <si>
+    <t>04/21 CHN Time</t>
+  </si>
+  <si>
+    <t>04/22 CHN Time</t>
+  </si>
+  <si>
+    <t>04/30  DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0060575-SAM China Month-End Release 2.87.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060576-SAM China Month-End Release 2.87.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.87</t>
+  </si>
+  <si>
+    <t>CHG0060577-FO China Local Release 2.87-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060579-FO China Local Release 2.87-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.87.5</t>
+  </si>
+  <si>
+    <t>CHG0060581-FO China Local Release 2.87.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060582-FO China Local Release 2.87.5-PROD</t>
+  </si>
+  <si>
+    <r>
+      <t>SAM 2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <t>CHG0060813 - SAM China Release 2.88-UAT</t>
+  </si>
+  <si>
+    <t>CHG0060814 - SAM China Release 2.88-CN PROD</t>
+  </si>
+  <si>
+    <r>
+      <t>SAM 2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CHN Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0061535-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAM China Month-End Release 2.88.5-UAT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CHG0061536-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>SAM China Month-End Release 2.88.5-PROD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FO Local Release 2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+  </si>
+  <si>
+    <t>CHG0061533-FO China Local Release 2.88-UAT</t>
+  </si>
+  <si>
+    <r>
+      <t>CHG0061534-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>FO China Local Release 2.88-PROD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FO Local Release 2.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>.5</t>
+    </r>
+  </si>
+  <si>
+    <t>CHG0061531-FO China Local Release 2.88.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0061532-FO China Local Release 2.88.5-PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/04 CHN Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/10 CHN Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/17  DAL Time </t>
+  </si>
+  <si>
+    <t>CHG0061609 - SAM China Release 2.89-UAT</t>
+  </si>
+  <si>
+    <t>CHG0061610 - SAM China Release 2.89-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.89.5</t>
+  </si>
+  <si>
+    <t>06/18 CHN Time</t>
+  </si>
+  <si>
+    <t>06/21 CHN Time</t>
+  </si>
+  <si>
+    <t>06/30  DAL Time</t>
+  </si>
+  <si>
+    <t>CHG0061611 - SAM China Month-End Release 2.89.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0061612 - SAM China Month-End Release 2.89.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.89</t>
+  </si>
+  <si>
+    <t>CHG0061613 - FO China Local Release 2.89-UAT</t>
+  </si>
+  <si>
+    <t>CHG0061614 - FO China Local Release 2.89-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.89.5</t>
+  </si>
+  <si>
+    <t>CHG0061615 - FO China Local Release 2.89.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0061616 - FO China Local Release 2.89.5-PROD</t>
+  </si>
+  <si>
+    <t>发布相关</t>
+  </si>
+  <si>
+    <t>Octopus</t>
+  </si>
+  <si>
+    <t>https://deploy/app#/Spaces-1/</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>http://10.216.212.98/job/FO/job/SAM/job/release/</t>
+  </si>
+  <si>
+    <t>Service Now</t>
+  </si>
+  <si>
+    <t>https://marykay.service-now.com/nav_to.do</t>
+  </si>
+  <si>
+    <t>Create Branch</t>
+  </si>
+  <si>
+    <t>http://ads.mkcorp.com/DefaultCollection/FrontOffice/_versionControl?path=%24%2FFrontOffice%2FRELEASE</t>
+  </si>
+  <si>
+    <t>Create Package</t>
+  </si>
+  <si>
+    <t>http://ads.mkcorp.com/DefaultCollection/FrontOffice/_build</t>
+  </si>
+  <si>
+    <t>中国日历</t>
+  </si>
+  <si>
+    <t>https://mkcorp.sharepoint.com/sites/mkc_IT/sam/frontoffice/default.aspx</t>
+  </si>
+  <si>
+    <t>美国日历</t>
+  </si>
+  <si>
+    <t>https://mkcorp.sharepoint.com/sites/co-usa-ist-dbssamfo/Lists/Calendar/Release.aspx</t>
+  </si>
+  <si>
+    <t>测试Links</t>
+  </si>
+  <si>
+    <t>玫琳凯之窗-PROD</t>
+  </si>
+  <si>
+    <t>https://www.marykayintouch.com.cn/login/login.aspx</t>
+  </si>
+  <si>
+    <t>玫琳凯之窗-QA</t>
+  </si>
+  <si>
+    <t>https://qa-site.marykayintouch.com.cn/login/login</t>
+  </si>
+  <si>
+    <t>玫琳凯之窗-UAT</t>
+  </si>
+  <si>
+    <t>https://uat-site.marykayintouch.com.cn/login/login</t>
+  </si>
+  <si>
+    <t>国家企业信用信息公示系统</t>
+  </si>
+  <si>
+    <t>http://www.gsxt.gov.cn/index.html</t>
+  </si>
+  <si>
+    <t>Citrix网页版</t>
+  </si>
+  <si>
+    <t>https://citrix.mkcorp.com.cn/vpn/index.html</t>
+  </si>
+  <si>
+    <t>Splunk系统</t>
+  </si>
+  <si>
+    <t>http://mksplunk.chn.mkcorp.com/zh-CN/account/login</t>
+  </si>
+  <si>
+    <t>工作Link</t>
+  </si>
+  <si>
+    <t>MK工时系统</t>
+  </si>
+  <si>
+    <t>https://marykay.tenrox.net/TEnterprise/index.asp</t>
+  </si>
+  <si>
+    <t>博彦工时系统</t>
+  </si>
+  <si>
+    <t>https://e-cology.beyondsoft.com/login/Login.jsp</t>
+  </si>
+  <si>
+    <t>新MK文件系统</t>
+  </si>
+  <si>
+    <t>https://wiki.chn.mkcorp.com/pages/viewpage.action?pageId=61579549</t>
+  </si>
+  <si>
+    <t>旧MK文件系统</t>
+  </si>
+  <si>
+    <t>https://marykay.atlassian.net/wiki/spaces/FCQKB/overview</t>
+  </si>
+  <si>
+    <t>MQ_DEV</t>
+  </si>
+  <si>
+    <t>http://fo-rmq.ebz-chn-dev.mkaws.com:15672</t>
+  </si>
+  <si>
+    <t>MQ_QA</t>
+  </si>
+  <si>
+    <t>http://fo-rmq.ebz-chn-qa.mkaws.com:15672</t>
+  </si>
+  <si>
+    <t>MQ_UAT</t>
+  </si>
+  <si>
+    <t>http://fo-rmq.ebz-chn-uat.mkaws.com:15672</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -99,11 +879,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -114,9 +984,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -428,31 +1362,830 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55F8CD7-8E25-416C-8684-4BE63D0581CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="17">
+        <v>202103</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>202103</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>202103</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>202103</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="13">
+        <v>202104</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>202104</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="13">
+        <v>202104</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="13">
+        <v>202104</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>202105</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>202105</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>202105</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>202105</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="13">
+        <v>202106</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="13">
+        <v>202106</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="13">
+        <v>202106</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="13">
+        <v>202106</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="80">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8E175-64AC-4A9B-AD03-64A22685B46F}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="97" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="21"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="/Spaces-1/" xr:uid="{69F14605-10D4-44BA-9287-A095406C8C16}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{32EE6035-4861-4955-B43F-BE81D15D0391}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{DA251807-B5E4-4F7D-9F73-B9026B2EB4B6}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{11A25BD9-AB2F-4DCE-9152-D15E6FF3C93D}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{2A638810-6EC2-4FF3-B38B-3FECDD30A4E6}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{6DBDA712-4F91-4937-A6D1-3D5232A45A25}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{43BA0C56-E68F-42CC-9557-40258635C4BF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0EFCDE-C629-485E-9233-39BFE04EDEA1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="150">
+    <row r="1" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -460,7 +2193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="225">
+    <row r="2" spans="1:2" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -469,6 +2202,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/info.xlsx
+++ b/doc/info.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guoxiaoqiang\PycharmProjects\Work\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415ACC7E-CF5C-4B0C-82D2-7A9944CCB2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6626927B-6CF7-48E1-BAF4-3E4FF654F6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{05683452-B0E2-482B-8AFE-F13A63B63A05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{05683452-B0E2-482B-8AFE-F13A63B63A05}"/>
   </bookViews>
   <sheets>
     <sheet name="deploy_plan" sheetId="1" r:id="rId1"/>
-    <sheet name="links" sheetId="3" r:id="rId2"/>
-    <sheet name="SQL" sheetId="2" r:id="rId3"/>
+    <sheet name="level_info" sheetId="4" r:id="rId2"/>
+    <sheet name="links" sheetId="3" r:id="rId3"/>
+    <sheet name="SQL" sheetId="2" r:id="rId4"/>
+    <sheet name="BCA_data" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="207">
   <si>
     <t>select top 10 cp.ConsultantNumber,cp.ContactID,cp.SubsidiaryID
 from ConsultantProfile cp (nolock)
@@ -610,9 +612,6 @@
     <t xml:space="preserve">06/10 CHN Time </t>
   </si>
   <si>
-    <t xml:space="preserve">06/17  DAL Time </t>
-  </si>
-  <si>
     <t>CHG0061609 - SAM China Release 2.89-UAT</t>
   </si>
   <si>
@@ -622,9 +621,6 @@
     <t>SAM 2.89.5</t>
   </si>
   <si>
-    <t>06/18 CHN Time</t>
-  </si>
-  <si>
     <t>06/21 CHN Time</t>
   </si>
   <si>
@@ -782,17 +778,270 @@
   </si>
   <si>
     <t>http://fo-rmq.ebz-chn-uat.mkaws.com:15672</t>
+  </si>
+  <si>
+    <t>BK_CareerLevelID</t>
+  </si>
+  <si>
+    <t>CareerLevelGroupName</t>
+  </si>
+  <si>
+    <t>ChinaCareerLevel</t>
+  </si>
+  <si>
+    <t>CareerLevelDescription</t>
+  </si>
+  <si>
+    <t>VIP Group</t>
+  </si>
+  <si>
+    <t>VIP贵宾</t>
+  </si>
+  <si>
+    <t>Consultant Group</t>
+  </si>
+  <si>
+    <t>DIQ Group</t>
+  </si>
+  <si>
+    <t>Director Group</t>
+  </si>
+  <si>
+    <t>NIQ Group</t>
+  </si>
+  <si>
+    <t>NSD Group</t>
+  </si>
+  <si>
+    <t>NSD US Group</t>
+  </si>
+  <si>
+    <t>National Sales Director (US Qual)</t>
+  </si>
+  <si>
+    <t>Senior National Sales Director (US)</t>
+  </si>
+  <si>
+    <t>Executive National Sales Director (US)</t>
+  </si>
+  <si>
+    <t>NSD Retired Group</t>
+  </si>
+  <si>
+    <t>VIP Consultant/VIP贵宾</t>
+  </si>
+  <si>
+    <t>Beauty Consultant/美容顾问</t>
+  </si>
+  <si>
+    <t>Senior Consultant/资深美容顾问</t>
+  </si>
+  <si>
+    <t>Star Recruiter/明星美容顾问</t>
+  </si>
+  <si>
+    <t>Team Leader/红外套美容顾问</t>
+  </si>
+  <si>
+    <t>Future Director/未来经销商</t>
+  </si>
+  <si>
+    <t>Director in Qualification/准经销商</t>
+  </si>
+  <si>
+    <t>Sales Director/经销商</t>
+  </si>
+  <si>
+    <t>Senior Sales Director/资深经销商</t>
+  </si>
+  <si>
+    <t>Future Executive Senior Sales Director/明星经销商</t>
+  </si>
+  <si>
+    <t>Executive Senior Sales Director/执行经销商</t>
+  </si>
+  <si>
+    <t>Elite Executive Senior Sales Director/精英执行经销商</t>
+  </si>
+  <si>
+    <t>National Sales Director Emeritus/荣誉首席经销商</t>
+  </si>
+  <si>
+    <t>Senior National Sales Director Emeritus/荣誉资深首席经销商</t>
+  </si>
+  <si>
+    <t>Executive National Sales Director Emeritus/荣誉执行首席经销商</t>
+  </si>
+  <si>
+    <t>Elite Executive National Sales Director Emeritus/荣誉精英执行首席经销商</t>
+  </si>
+  <si>
+    <t>National in Qualification/准首席经销商</t>
+  </si>
+  <si>
+    <t>National Sales Director/首席经销商</t>
+  </si>
+  <si>
+    <t>Senior National Sales Director/资深首席经销商</t>
+  </si>
+  <si>
+    <t>Executive National Sales Director/执行首席经销商</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/20 DAL Time </t>
+  </si>
+  <si>
+    <t>06/22 CHN Time</t>
+  </si>
+  <si>
+    <t>SAM 2.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/05 CHN Time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12 CHN Time </t>
+  </si>
+  <si>
+    <t>07/19  CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0062609- SAM China Release 2.90-UAT</t>
+  </si>
+  <si>
+    <t>CHG0062611- SAM China Release 2.90-CN PROD</t>
+  </si>
+  <si>
+    <t>SAM 2.90.5</t>
+  </si>
+  <si>
+    <t>07/20 CHN Time</t>
+  </si>
+  <si>
+    <t>07/21 CHN Time</t>
+  </si>
+  <si>
+    <t>07/31  CHN Time</t>
+  </si>
+  <si>
+    <t>CHG0062612 - SAM China Month-End Release 2.90.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0062613- SAM China Month-End Release 2.90.5-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/05 CHN Time  </t>
+  </si>
+  <si>
+    <t>CHG0062614- FO China Local Release 2.90-UAT</t>
+  </si>
+  <si>
+    <t>CHG0062615 - FO China Local Release 2.90-PROD</t>
+  </si>
+  <si>
+    <t>FO Local Release 2.90.5</t>
+  </si>
+  <si>
+    <t>CHG0062616 - FO China Local Release 2.90.5-UAT</t>
+  </si>
+  <si>
+    <t>CHG0062617- FO China Local Release 2.90.5-PROD</t>
+  </si>
+  <si>
+    <t>终止合同</t>
+  </si>
+  <si>
+    <t>BC workspace --&gt; Business Director License terminated by Others（*执照有效截止日：为当日之前的日期）</t>
+  </si>
+  <si>
+    <t>My Workspace --&gt; Request Job : Job Type: CCM ; Job Category: CCM BDL Expiration Work; Job Run Time: 执照有效截止日</t>
+  </si>
+  <si>
+    <t>BC设置等级</t>
+  </si>
+  <si>
+    <t>数据库：ebizoeawscnuat/contacts</t>
+  </si>
+  <si>
+    <t>语句：exec CE_UpdateConsultantLevel 20006273956,'50',0</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>具体操作</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>BC换渠道</t>
+  </si>
+  <si>
+    <t>BC workspace --&gt; Open License Request Change  
+（小微企业代办: 2; 小微企业自有: 3; 直销员: 1)</t>
+  </si>
+  <si>
+    <t>执照有效性查询</t>
+  </si>
+  <si>
+    <t>国家企业信用信息公示系统：http://www.gsxt.gov.cn/index.html</t>
+  </si>
+  <si>
+    <t>小微自办，直销员流程结束</t>
+  </si>
+  <si>
+    <t>小微代办后续流程</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>EBIZFOAWSCNQA --&gt; Consultants</t>
+  </si>
+  <si>
+    <t>select top 10 * from cn.CCM_VendorLicenseNameList</t>
+  </si>
+  <si>
+    <t>select top 10 * from cn.CCM_ShouDaoVendorLicenseResult</t>
+  </si>
+  <si>
+    <t>select top 10 * from cn.CCM_BPWorkShouDaoRegUsers</t>
+  </si>
+  <si>
+    <t>切换渠道后，select * from cn.CCM_VendorLicenseNameList 表中 VendorLicenseType = 2, 其他表无数据</t>
+  </si>
+  <si>
+    <t>My Workspace --&gt; Request Job : Job Type: CCM ; Job Category: CCM ShouDaoRegUser Process Sync; Job Run Time:为当日之前的日期</t>
+  </si>
+  <si>
+    <t>Job执行完成后</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select top 10 * from cn.CCM_BPWorkShouDaoRegUsers 表  StatusID = 3 </t>
+  </si>
+  <si>
+    <t>select top 10 * from cn.CCM_ShouDaoVendorLicenseResult 表 StatusID = 1</t>
+  </si>
+  <si>
+    <t>手动Update cn.CCM_ShouDaoVendorLicenseResult 表 StatusID值为2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -806,7 +1055,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -839,10 +1088,16 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -973,7 +1228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1011,17 +1266,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1035,18 +1290,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1362,21 +1618,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55F8CD7-8E25-416C-8684-4BE63D0581CB}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -1396,7 +1652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="17">
         <v>202103</v>
       </c>
@@ -1416,7 +1672,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1426,7 +1682,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="17">
         <v>202103</v>
       </c>
@@ -1446,7 +1702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" thickBot="1">
       <c r="A5" s="18"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1456,7 +1712,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="17">
         <v>202103</v>
       </c>
@@ -1476,7 +1732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" thickBot="1">
       <c r="A7" s="18"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1486,7 +1742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="17">
         <v>202103</v>
       </c>
@@ -1506,7 +1762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" thickBot="1">
       <c r="A9" s="18"/>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1516,127 +1772,127 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
+    <row r="10" spans="1:6">
+      <c r="A10" s="21">
         <v>202104</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+    <row r="11" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+    <row r="12" spans="1:6">
+      <c r="A12" s="21">
         <v>202104</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="13">
+    <row r="14" spans="1:6">
+      <c r="A14" s="21">
         <v>202104</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="23" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="22"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="13">
+    <row r="16" spans="1:6">
+      <c r="A16" s="21">
         <v>202104</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="23" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="17">
         <v>202105</v>
       </c>
@@ -1656,7 +1912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="18"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
@@ -1666,7 +1922,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="17">
         <v>202105</v>
       </c>
@@ -1686,7 +1942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="18"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -1696,7 +1952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="17">
         <v>202105</v>
       </c>
@@ -1716,7 +1972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="18"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -1726,7 +1982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="17">
         <v>202105</v>
       </c>
@@ -1746,7 +2002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="18"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -1756,404 +2012,924 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="13">
+    <row r="26" spans="1:6">
+      <c r="A26" s="21">
         <v>202106</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="9" t="s">
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="10" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" s="21">
+        <v>202106</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="13">
+      <c r="C28" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A29" s="22"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" customHeight="1">
+      <c r="A30" s="21">
         <v>202106</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B30" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="21">
+        <v>202106</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D32" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="13">
-        <v>202106</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="12" t="s">
+      <c r="F32" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="13">
-        <v>202106</v>
-      </c>
-      <c r="B32" s="15" t="s">
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="10" t="s">
-        <v>81</v>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="17">
+        <v>202107</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15" customHeight="1">
+      <c r="A36" s="17">
+        <v>202107</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" customHeight="1">
+      <c r="A38" s="17">
+        <v>202107</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" customHeight="1">
+      <c r="A40" s="17">
+        <v>202107</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="8" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="100">
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882A3BFF-8A69-458B-9A1A-EE829EB56E14}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14">
+        <v>110</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="14">
+        <v>120</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="14">
+        <v>5</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="14">
+        <v>130</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="14">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="14">
+        <v>220</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14">
+        <v>230</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="14">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="14">
+        <v>240</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="14">
+        <v>30</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="14">
+        <v>250</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="14">
+        <v>35</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="14">
+        <v>260</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="14">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="14">
+        <v>300</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="14">
+        <v>50</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="14">
+        <v>420</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="14">
+        <v>60</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="14">
+        <v>430</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="14">
+        <v>70</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="14">
+        <v>440</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="14">
+        <v>75</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="14">
+        <v>450</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="14">
+        <v>80</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="14">
+        <v>460</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="14">
+        <v>85</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="14">
+        <v>500</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="14">
+        <v>87</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="14">
+        <v>620</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="14">
+        <v>90</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="14">
+        <v>630</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="14">
+        <v>92</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="14">
+        <v>640</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="14">
+        <v>95</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="14">
+        <v>720</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14">
+        <v>730</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="14">
+        <v>740</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="14">
+        <v>820</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="14">
+        <v>99</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14">
+        <v>830</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="14">
+        <v>99</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="14">
+        <v>840</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="14">
+        <v>99</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="14">
+        <v>850</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="14">
+        <v>99</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8E175-64AC-4A9B-AD03-64A22685B46F}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="97" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="21"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B4" s="15" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B5" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B6" s="15" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B7" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B8" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="B10" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="24"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B12" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B13" s="15" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B14" s="15" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B15" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B16" s="13"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="21"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="22" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B18" s="15" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B19" s="15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B20" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B21" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B22" s="15" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B23" s="15" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2171,21 +2947,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0EFCDE-C629-485E-9233-39BFE04EDEA1}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="150">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2193,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="185.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="225">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2205,4 +2981,166 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A01A-4634-47EA-8764-99A7BA11ABA3}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="C10" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="C11" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="C12" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5">
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5">
+      <c r="C16" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/info.xlsx
+++ b/doc/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guoxiaoqiang\PycharmProjects\Work\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6626927B-6CF7-48E1-BAF4-3E4FF654F6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930F2A81-D2AA-417E-8C86-2081EE0DC26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{05683452-B0E2-482B-8AFE-F13A63B63A05}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="208">
   <si>
     <t>select top 10 cp.ConsultantNumber,cp.ContactID,cp.SubsidiaryID
 from ConsultantProfile cp (nolock)
@@ -957,9 +957,6 @@
     <t>BC workspace --&gt; Business Director License terminated by Others（*执照有效截止日：为当日之前的日期）</t>
   </si>
   <si>
-    <t>My Workspace --&gt; Request Job : Job Type: CCM ; Job Category: CCM BDL Expiration Work; Job Run Time: 执照有效截止日</t>
-  </si>
-  <si>
     <t>BC设置等级</t>
   </si>
   <si>
@@ -1018,9 +1015,6 @@
     <t>切换渠道后，select * from cn.CCM_VendorLicenseNameList 表中 VendorLicenseType = 2, 其他表无数据</t>
   </si>
   <si>
-    <t>My Workspace --&gt; Request Job : Job Type: CCM ; Job Category: CCM ShouDaoRegUser Process Sync; Job Run Time:为当日之前的日期</t>
-  </si>
-  <si>
     <t>Job执行完成后</t>
   </si>
   <si>
@@ -1031,6 +1025,15 @@
   </si>
   <si>
     <t>手动Update cn.CCM_ShouDaoVendorLicenseResult 表 StatusID值为2</t>
+  </si>
+  <si>
+    <t>Job Type: CCM ; Job Category: CCM BDL Expiration Work; Job Run Time: 执照有效截止日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My Workspace --&gt; Request Job </t>
+  </si>
+  <si>
+    <t>Job Type: CCM ; Job Category: CCM ShouDaoRegUser Process Sync; Job Run Time:为当日之前的日期</t>
   </si>
 </sst>
 </file>
@@ -1278,17 +1281,18 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1302,7 +1306,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1653,19 +1656,19 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17">
+      <c r="A2" s="20">
         <v>202103</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1673,29 +1676,29 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17">
+      <c r="A4" s="20">
         <v>202103</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="7" t="s">
@@ -1703,29 +1706,29 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="17">
+      <c r="A6" s="20">
         <v>202103</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
@@ -1733,29 +1736,29 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="17">
+      <c r="A8" s="20">
         <v>202103</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1763,29 +1766,29 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="21">
+      <c r="A10" s="22">
         <v>202104</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F10" s="9" t="s">
@@ -1793,29 +1796,29 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>202104</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="11" t="s">
@@ -1823,29 +1826,29 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>202104</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="24" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="11" t="s">
@@ -1853,29 +1856,29 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>202104</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="24" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="11" t="s">
@@ -1883,29 +1886,29 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17">
+      <c r="A18" s="20">
         <v>202105</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
@@ -1913,29 +1916,29 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
       <c r="F19" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="17">
+      <c r="A20" s="20">
         <v>202105</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
@@ -1943,29 +1946,29 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
       <c r="F21" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="17">
+      <c r="A22" s="20">
         <v>202105</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F22" s="7" t="s">
@@ -1973,29 +1976,29 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17">
+      <c r="A24" s="20">
         <v>202105</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="18" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="7" t="s">
@@ -2003,29 +2006,29 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
       <c r="F25" s="8" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="21">
+      <c r="A26" s="22">
         <v>202106</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="24" t="s">
         <v>159</v>
       </c>
       <c r="F26" s="9" t="s">
@@ -2033,29 +2036,29 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="21">
+      <c r="A28" s="22">
         <v>202106</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -2063,29 +2066,29 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1">
-      <c r="A30" s="21">
+      <c r="A30" s="22">
         <v>202106</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="24" t="s">
         <v>159</v>
       </c>
       <c r="F30" s="11" t="s">
@@ -2093,29 +2096,29 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1">
-      <c r="A32" s="21">
+      <c r="A32" s="22">
         <v>202106</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F32" s="11" t="s">
@@ -2123,29 +2126,29 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1">
-      <c r="A34" s="17">
+      <c r="A34" s="20">
         <v>202107</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>164</v>
       </c>
       <c r="F34" s="7" t="s">
@@ -2153,29 +2156,29 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
       <c r="F35" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15" customHeight="1">
-      <c r="A36" s="17">
+      <c r="A36" s="20">
         <v>202107</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>170</v>
       </c>
       <c r="F36" s="7" t="s">
@@ -2183,29 +2186,29 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" customHeight="1">
-      <c r="A38" s="17">
+      <c r="A38" s="20">
         <v>202107</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="E38" s="19" t="s">
+      <c r="E38" s="18" t="s">
         <v>164</v>
       </c>
       <c r="F38" s="7" t="s">
@@ -2213,29 +2216,29 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" customHeight="1">
-      <c r="A40" s="17">
+      <c r="A40" s="20">
         <v>202107</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>170</v>
       </c>
       <c r="F40" s="7" t="s">
@@ -2243,17 +2246,105 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="8" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="D40:D41"/>
     <mergeCell ref="E40:E41"/>
@@ -2262,98 +2353,10 @@
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="D38:D39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2985,10 +2988,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A01A-4634-47EA-8764-99A7BA11ABA3}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2999,24 +3002,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" t="s">
         <v>186</v>
-      </c>
-      <c r="B1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3035,108 +3038,118 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>183</v>
       </c>
-      <c r="B5">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="B6">
+      <c r="C8" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="C11" s="17" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="C12" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="C13" s="17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-      <c r="B9" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5">
-      <c r="C10" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="16.5">
-      <c r="C11" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="16.5">
-      <c r="C12" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5">
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="16.5">
+      <c r="B17" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C17" s="17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5">
-      <c r="B15" t="s">
+    <row r="18" spans="2:3" ht="16.5">
+      <c r="C18" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="25" t="s">
+    </row>
+    <row r="19" spans="2:3" ht="16.5">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" s="17" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.5">
-      <c r="C16" s="25" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="16.5">
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
